--- a/large/resultlarge.xlsx
+++ b/large/resultlarge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/hta/Courses/USC/MLandOpt/Project/CBSH2-master/large/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D44E8B1-0EE7-AA4A-8965-431952C3683B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558131B3-AA40-1049-9F34-4638F9767483}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultlarge" sheetId="1" r:id="rId1"/>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3696,7 +3696,7 @@
         <v>952.09090909090912</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="B34:Y34" si="0">AVERAGE(C1:C33)</f>
+        <f t="shared" ref="C34:Y34" si="0">AVERAGE(C1:C33)</f>
         <v>1904.6666666666667</v>
       </c>
       <c r="D34">
@@ -6638,107 +6638,107 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <f>AVERAGE(A40:A71)</f>
+        <f t="shared" ref="A72:N72" si="1">AVERAGE(A40:A71)</f>
         <v>496253.18406250002</v>
       </c>
       <c r="B72" s="1">
-        <f>AVERAGE(B40:B71)</f>
+        <f t="shared" si="1"/>
         <v>3099.15625</v>
       </c>
       <c r="C72" s="1">
-        <f>AVERAGE(C40:C71)</f>
+        <f t="shared" si="1"/>
         <v>6198.84375</v>
       </c>
       <c r="D72" s="1">
-        <f>AVERAGE(D40:D71)</f>
+        <f t="shared" si="1"/>
         <v>24.21875</v>
       </c>
       <c r="E72" s="1">
-        <f>AVERAGE(E40:E71)</f>
+        <f t="shared" si="1"/>
         <v>11193352.84375</v>
       </c>
       <c r="F72" s="1">
-        <f>AVERAGE(F40:F71)</f>
+        <f t="shared" si="1"/>
         <v>19922531.21875</v>
       </c>
       <c r="G72" s="1">
-        <f>AVERAGE(G40:G71)</f>
+        <f t="shared" si="1"/>
         <v>10737.4375</v>
       </c>
       <c r="H72" s="1">
-        <f>AVERAGE(H40:H71)</f>
+        <f t="shared" si="1"/>
         <v>11506.15625</v>
       </c>
       <c r="I72" s="1">
-        <f>AVERAGE(I40:I71)</f>
+        <f t="shared" si="1"/>
         <v>11485.75</v>
       </c>
       <c r="J72" s="1">
-        <f>AVERAGE(J40:J71)</f>
+        <f t="shared" si="1"/>
         <v>11503</v>
       </c>
       <c r="K72" s="1">
-        <f>AVERAGE(K40:K71)</f>
+        <f t="shared" si="1"/>
         <v>1413.6920624999998</v>
       </c>
       <c r="L72" s="1">
-        <f>AVERAGE(L40:L71)</f>
+        <f t="shared" si="1"/>
         <v>5961.4720937499997</v>
       </c>
       <c r="M72" s="1">
-        <f>AVERAGE(M40:M71)</f>
+        <f t="shared" si="1"/>
         <v>171.3125</v>
       </c>
       <c r="N72" s="1">
-        <f>AVERAGE(N40:N71)</f>
+        <f t="shared" si="1"/>
         <v>27.59375</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" ref="O72:Z72" si="1">AVERAGE(O40:O71)</f>
+        <f t="shared" ref="O72:Z72" si="2">AVERAGE(O40:O71)</f>
         <v>55.1875</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85077.07925000001</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>285.5</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>287.125</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>287.125</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3830.34375</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.441718750000014</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4357.15625</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1357.1760312500001</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.943500000000002</v>
       </c>
     </row>
@@ -6752,99 +6752,99 @@
         <v>2343</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="B74:Z74" si="2">AVERAGE(C40:C70)</f>
+        <f t="shared" ref="C74:Z74" si="3">AVERAGE(C40:C70)</f>
         <v>4686.5483870967746</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.548387096774192</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5576342.6129032262</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13381179.580645161</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11083.838709677419</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11521.774193548386</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11501.645161290322</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11518.903225806451</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1279.7389032258063</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6093.6018387096765</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175.12903225806451</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87740.01729032259</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>292.83870967741933</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>296.32258064516128</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>296.32258064516128</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3776.3870967741937</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59.418741935483887</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3940.8709677419356</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1379.1225161290324</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.811419354838712</v>
       </c>
     </row>
@@ -10421,10 +10421,10 @@
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" t="s">
         <v>49</v>
-      </c>
-      <c r="B123" t="s">
-        <v>50</v>
       </c>
       <c r="E123" t="s">
         <v>49</v>
@@ -10438,26 +10438,26 @@
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>3600090</v>
-      </c>
-      <c r="B124" s="3">
-        <v>5400000</v>
+        <v>1456230</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2836100</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>23228</v>
+        <v>21137</v>
       </c>
       <c r="F124">
-        <v>39121</v>
+        <v>13049</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <f>G124*(E124-F124)</f>
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="J124">
         <v>23228</v>
@@ -10474,27 +10474,27 @@
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>2836100</v>
-      </c>
-      <c r="B125" s="3">
-        <v>1460000</v>
+      <c r="A125">
+        <v>28518.799999999999</v>
+      </c>
+      <c r="B125">
+        <v>41519.599999999999</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>21137</v>
+        <v>347</v>
       </c>
       <c r="F125">
-        <v>13049</v>
+        <v>255</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125">
         <f>(E125-F125)</f>
-        <v>8088</v>
+        <v>92</v>
       </c>
       <c r="J125">
         <v>21137</v>
@@ -10512,26 +10512,26 @@
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>41519.599999999999</v>
-      </c>
-      <c r="B126" s="2">
-        <v>28518.799999999999</v>
+        <v>25868.2</v>
+      </c>
+      <c r="B126">
+        <v>44626</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F126">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126">
-        <f t="shared" ref="H126:H163" si="3">(E126-F126)</f>
-        <v>92</v>
+        <f t="shared" ref="H126:H162" si="4">(E126-F126)</f>
+        <v>111</v>
       </c>
       <c r="J126">
         <v>347</v>
@@ -10543,32 +10543,32 @@
         <v>1</v>
       </c>
       <c r="M126">
-        <f t="shared" ref="M126:M163" si="4">(J126-K126)</f>
+        <f t="shared" ref="M126:M163" si="5">(J126-K126)</f>
         <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>44626</v>
-      </c>
-      <c r="B127" s="2">
-        <v>25868.2</v>
+        <v>3120.75</v>
+      </c>
+      <c r="B127">
+        <v>4363.5</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="F127">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="3"/>
-        <v>111</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>341</v>
@@ -10580,25 +10580,25 @@
         <v>1</v>
       </c>
       <c r="M127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>4363.5</v>
-      </c>
-      <c r="B128" s="2">
-        <v>3120.75</v>
+        <v>233853</v>
+      </c>
+      <c r="B128">
+        <v>388222</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>33</v>
+        <v>2544</v>
       </c>
       <c r="F128">
-        <v>32</v>
+        <v>2544</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -10621,26 +10621,26 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>388222</v>
-      </c>
-      <c r="B129" s="2">
-        <v>233853</v>
+        <v>28894</v>
+      </c>
+      <c r="B129">
+        <v>45424.6</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>2544</v>
+        <v>334</v>
       </c>
       <c r="F129">
-        <v>2544</v>
+        <v>335</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="J129">
         <v>2544</v>
@@ -10652,25 +10652,25 @@
         <v>1</v>
       </c>
       <c r="M129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2215</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>38743.599999999999</v>
-      </c>
-      <c r="B130" s="2">
-        <v>28894</v>
+        <v>4496.76</v>
+      </c>
+      <c r="B130">
+        <v>6341.39</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="F130">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -10688,28 +10688,28 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-98</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>1483050</v>
-      </c>
-      <c r="B131" s="3">
-        <v>5400000</v>
+      <c r="A131">
+        <v>4636.5600000000004</v>
+      </c>
+      <c r="B131">
+        <v>4765.26</v>
       </c>
       <c r="C131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>11967</v>
+        <v>28</v>
       </c>
       <c r="F131">
-        <v>11417</v>
+        <v>28</v>
       </c>
       <c r="G131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -10724,32 +10724,32 @@
         <v>-1</v>
       </c>
       <c r="M131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-20671</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>6341.39</v>
-      </c>
-      <c r="B132" s="2">
-        <v>4496.76</v>
+        <v>418536</v>
+      </c>
+      <c r="B132">
+        <v>691499</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>39</v>
+        <v>4961</v>
       </c>
       <c r="F132">
-        <v>39</v>
+        <v>4913</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>39</v>
@@ -10761,25 +10761,25 @@
         <v>-1</v>
       </c>
       <c r="M132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-24</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>3600080</v>
-      </c>
-      <c r="B133" s="3">
-        <v>5400000</v>
+      <c r="A133">
+        <v>8190.78</v>
+      </c>
+      <c r="B133">
+        <v>13924.7</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>23392</v>
+        <v>54</v>
       </c>
       <c r="F133">
-        <v>51735</v>
+        <v>54</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -10797,31 +10797,31 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-17643</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>4765.26</v>
-      </c>
-      <c r="B134" s="2">
-        <v>4636.5600000000004</v>
+        <v>643550</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1051110</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>28</v>
+        <v>7908</v>
       </c>
       <c r="F134">
-        <v>28</v>
+        <v>7908</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J134">
@@ -10838,20 +10838,20 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>3600030</v>
-      </c>
-      <c r="B135" s="3">
-        <v>5400000</v>
+      <c r="A135">
+        <v>13684.5</v>
+      </c>
+      <c r="B135">
+        <v>20267.8</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>37722</v>
+        <v>129</v>
       </c>
       <c r="F135">
-        <v>43920</v>
+        <v>129</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -10869,32 +10869,32 @@
         <v>0</v>
       </c>
       <c r="M135">
+        <f t="shared" si="5"/>
+        <v>-3147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>1272230</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1599230</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>10903</v>
+      </c>
+      <c r="F136">
+        <v>11967</v>
+      </c>
+      <c r="G136">
+        <v>-1</v>
+      </c>
+      <c r="H136">
         <f t="shared" si="4"/>
-        <v>-3147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>691499</v>
-      </c>
-      <c r="B136" s="2">
-        <v>418536</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>4961</v>
-      </c>
-      <c r="F136">
-        <v>4913</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <v>-1064</v>
       </c>
       <c r="J136">
         <v>4961</v>
@@ -10906,32 +10906,32 @@
         <v>-1</v>
       </c>
       <c r="M136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16975</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>13924.7</v>
-      </c>
-      <c r="B137" s="2">
-        <v>8190.78</v>
+        <v>798891</v>
+      </c>
+      <c r="B137">
+        <v>409944</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>54</v>
+        <v>3861</v>
       </c>
       <c r="F137">
-        <v>54</v>
+        <v>8616</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-4755</v>
       </c>
       <c r="J137">
         <v>54</v>
@@ -10947,27 +10947,27 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>1051110</v>
-      </c>
-      <c r="B138" s="2">
-        <v>643550</v>
+      <c r="A138">
+        <v>115100</v>
+      </c>
+      <c r="B138">
+        <v>158413</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>7908</v>
+        <v>1327</v>
       </c>
       <c r="F138">
-        <v>7908</v>
+        <v>1329</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-2</v>
       </c>
       <c r="J138">
         <v>7908</v>
@@ -10979,31 +10979,31 @@
         <v>-1</v>
       </c>
       <c r="M138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5660</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>20267.8</v>
-      </c>
-      <c r="B139" s="2">
-        <v>13684.5</v>
+        <v>25816.7</v>
+      </c>
+      <c r="B139">
+        <v>35390.800000000003</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="F139">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J139">
@@ -11016,32 +11016,32 @@
         <v>-1</v>
       </c>
       <c r="M139">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>97040.4</v>
+      </c>
+      <c r="B140">
+        <v>154196</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1072</v>
+      </c>
+      <c r="F140">
+        <v>1072</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>1599230</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1270000</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>10903</v>
-      </c>
-      <c r="F140">
-        <v>11967</v>
-      </c>
-      <c r="G140">
-        <v>-1</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="3"/>
-        <v>-1064</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>10903</v>
@@ -11053,32 +11053,32 @@
         <v>-1</v>
       </c>
       <c r="M140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-10342</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>409944</v>
-      </c>
-      <c r="B141" s="2">
-        <v>798891</v>
+        <v>9283.49</v>
+      </c>
+      <c r="B141">
+        <v>12865.3</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>3861</v>
+        <v>51</v>
       </c>
       <c r="F141">
-        <v>8616</v>
+        <v>51</v>
       </c>
       <c r="G141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="3"/>
-        <v>-4755</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>3861</v>
@@ -11090,32 +11090,32 @@
         <v>-1</v>
       </c>
       <c r="M141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-15368</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>158413</v>
-      </c>
-      <c r="B142" s="2">
-        <v>115100</v>
+        <v>3931.74</v>
+      </c>
+      <c r="B142">
+        <v>5349.39</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="E142">
-        <v>1327</v>
+        <v>41</v>
       </c>
       <c r="F142">
-        <v>1329</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="3"/>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>1327</v>
@@ -11127,31 +11127,31 @@
         <v>1</v>
       </c>
       <c r="M142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>35390.800000000003</v>
-      </c>
-      <c r="B143" s="2">
-        <v>25816.7</v>
+        <v>40503.199999999997</v>
+      </c>
+      <c r="B143">
+        <v>56537.3</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="F143">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J143">
@@ -11164,28 +11164,28 @@
         <v>-1</v>
       </c>
       <c r="M143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-202</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>3600080</v>
-      </c>
-      <c r="B144" s="3">
-        <v>3800000</v>
+      <c r="A144">
+        <v>495968</v>
+      </c>
+      <c r="B144">
+        <v>284846</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>40818</v>
+        <v>431</v>
       </c>
       <c r="F144">
-        <v>49965</v>
+        <v>587</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -11200,31 +11200,31 @@
         <v>1</v>
       </c>
       <c r="M144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40630</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>154196</v>
-      </c>
-      <c r="B145" s="2">
-        <v>97040.4</v>
+        <v>5757.38</v>
+      </c>
+      <c r="B145">
+        <v>8206.23</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="E145">
-        <v>1072</v>
+        <v>47</v>
       </c>
       <c r="F145">
-        <v>1072</v>
+        <v>47</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J145">
@@ -11237,31 +11237,31 @@
         <v>-1</v>
       </c>
       <c r="M145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-593</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>12865.3</v>
-      </c>
-      <c r="B146" s="2">
-        <v>9283.49</v>
+        <v>3528.06</v>
+      </c>
+      <c r="B146">
+        <v>4848.24</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="E146">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F146">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J146">
@@ -11274,31 +11274,31 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>5349.39</v>
-      </c>
-      <c r="B147" s="2">
-        <v>3931.74</v>
+        <v>3859.51</v>
+      </c>
+      <c r="B147">
+        <v>5587.22</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="E147">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F147">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J147">
@@ -11311,32 +11311,32 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>56537.3</v>
-      </c>
-      <c r="B148" s="2">
-        <v>40503.199999999997</v>
+        <v>44352</v>
+      </c>
+      <c r="B148">
+        <v>71859.399999999994</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="E148">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="F148">
-        <v>263</v>
+        <v>416</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="J148">
         <v>263</v>
@@ -11348,32 +11348,32 @@
         <v>1</v>
       </c>
       <c r="M148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>284846</v>
-      </c>
-      <c r="B149" s="2">
-        <v>495968</v>
+        <v>383391</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3600110</v>
       </c>
       <c r="C149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>431</v>
+        <v>10203</v>
       </c>
       <c r="F149">
-        <v>587</v>
+        <v>3582</v>
       </c>
       <c r="G149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <f t="shared" si="3"/>
-        <v>-156</v>
+        <f t="shared" si="4"/>
+        <v>6621</v>
       </c>
       <c r="J149">
         <v>431</v>
@@ -11385,32 +11385,32 @@
         <v>-1</v>
       </c>
       <c r="M149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-77</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>8206.23</v>
-      </c>
-      <c r="B150" s="2">
-        <v>5757.38</v>
+        <v>32363.4</v>
+      </c>
+      <c r="B150">
+        <v>75369.3</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>47</v>
+        <v>835</v>
       </c>
       <c r="F150">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>452</v>
       </c>
       <c r="J150">
         <v>47</v>
@@ -11427,25 +11427,25 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>4848.24</v>
-      </c>
-      <c r="B151" s="2">
-        <v>3528.06</v>
+        <v>433088</v>
+      </c>
+      <c r="B151">
+        <v>610170</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>32</v>
+        <v>4629</v>
       </c>
       <c r="F151">
-        <v>32</v>
+        <v>4629</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J151">
@@ -11463,25 +11463,25 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>5587.22</v>
-      </c>
-      <c r="B152" s="2">
-        <v>3859.51</v>
+        <v>21077</v>
+      </c>
+      <c r="B152">
+        <v>26294.1</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="E152">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="F152">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J152">
@@ -11499,19 +11499,19 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>71859.399999999994</v>
-      </c>
-      <c r="B153" s="2">
-        <v>44352</v>
+        <v>4915.92</v>
+      </c>
+      <c r="B153">
+        <v>5889.12</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="E153">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="F153">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -11529,32 +11529,32 @@
         <v>-1</v>
       </c>
       <c r="M153">
+        <f t="shared" si="5"/>
+        <v>-1350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>6397.28</v>
+      </c>
+      <c r="B154">
+        <v>6822.64</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>53</v>
+      </c>
+      <c r="F154">
+        <v>53</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
         <f t="shared" si="4"/>
-        <v>-1350</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>3600110</v>
-      </c>
-      <c r="B154" s="2">
-        <v>383391</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <v>10203</v>
-      </c>
-      <c r="F154">
-        <v>3582</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <f t="shared" si="3"/>
-        <v>6621</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>10203</v>
@@ -11566,32 +11566,32 @@
         <v>-1</v>
       </c>
       <c r="M154">
+        <f t="shared" si="5"/>
+        <v>-14462</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>2589220</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3600010</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>26540</v>
+      </c>
+      <c r="F155">
+        <v>26540</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
         <f t="shared" si="4"/>
-        <v>-14462</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>75369.3</v>
-      </c>
-      <c r="B155" s="2">
-        <v>32363.4</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>835</v>
-      </c>
-      <c r="F155">
-        <v>383</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <f t="shared" si="3"/>
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>835</v>
@@ -11603,31 +11603,18 @@
         <v>1</v>
       </c>
       <c r="M155">
+        <f t="shared" si="5"/>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <f t="shared" si="4"/>
-        <v>771</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>610170</v>
-      </c>
-      <c r="B156" s="2">
-        <v>433088</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>4629</v>
-      </c>
-      <c r="F156">
-        <v>4629</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J156">
@@ -11640,26 +11627,13 @@
         <v>-1</v>
       </c>
       <c r="M156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4688</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>3600020</v>
-      </c>
-      <c r="B157" s="3">
-        <v>5400000</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>29670</v>
-      </c>
-      <c r="F157">
-        <v>45747</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="3"/>
       <c r="G157">
         <v>0</v>
       </c>
@@ -11676,26 +11650,13 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-13598</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>3600070</v>
-      </c>
-      <c r="B158" s="3">
-        <v>5400000</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>29319</v>
-      </c>
-      <c r="F158">
-        <v>61702</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="3"/>
       <c r="G158">
         <v>0</v>
       </c>
@@ -11712,31 +11673,17 @@
         <v>0</v>
       </c>
       <c r="M158">
+        <f t="shared" si="5"/>
+        <v>9609</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B159" s="2"/>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <f t="shared" si="4"/>
-        <v>9609</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>26294.1</v>
-      </c>
-      <c r="B159" s="2">
-        <v>21077</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>231</v>
-      </c>
-      <c r="F159">
-        <v>231</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J159">
@@ -11749,31 +11696,17 @@
         <v>0</v>
       </c>
       <c r="M159">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B160" s="2"/>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <f t="shared" si="4"/>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>5889.12</v>
-      </c>
-      <c r="B160" s="2">
-        <v>4915.92</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>37</v>
-      </c>
-      <c r="F160">
-        <v>37</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J160">
@@ -11786,26 +11719,13 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>3600020</v>
-      </c>
-      <c r="B161" s="3">
-        <v>5400000</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>48844</v>
-      </c>
-      <c r="F161">
-        <v>65932</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="3"/>
       <c r="G161">
         <v>0</v>
       </c>
@@ -11822,31 +11742,17 @@
         <v>0</v>
       </c>
       <c r="M161">
+        <f t="shared" si="5"/>
+        <v>-14754</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B162" s="2"/>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
         <f t="shared" si="4"/>
-        <v>-14754</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>6822.64</v>
-      </c>
-      <c r="B162" s="2">
-        <v>6397.28</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="E162">
-        <v>53</v>
-      </c>
-      <c r="F162">
-        <v>53</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J162">
@@ -11859,28 +11765,15 @@
         <v>-1</v>
       </c>
       <c r="M162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>3600010</v>
-      </c>
-      <c r="B163" s="3">
-        <v>2590000</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="E163">
-        <v>14900</v>
-      </c>
-      <c r="F163">
-        <v>26540</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="3"/>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -11895,18 +11788,27 @@
         <v>1</v>
       </c>
       <c r="M163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14787</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2</v>
+      </c>
       <c r="C164">
         <f>SUM(C124:C163)</f>
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>7</v>
       </c>
       <c r="G164">
         <f>SUM(G124:G163)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11918,8 +11820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E9B4AF-AC1F-AE49-A18B-283D45B46F9D}">
   <dimension ref="A1:AC121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14783,103 +14685,103 @@
         <v>289259.16968749999</v>
       </c>
       <c r="B33" s="1">
-        <f>AVERAGE(B1:B32)</f>
+        <f t="shared" ref="A33:Z33" si="0">AVERAGE(B1:B32)</f>
         <v>2804.34375</v>
       </c>
       <c r="C33" s="1">
-        <f>AVERAGE(C1:C32)</f>
+        <f t="shared" si="0"/>
         <v>5608.90625</v>
       </c>
       <c r="D33" s="1">
-        <f>AVERAGE(D1:D32)</f>
+        <f t="shared" si="0"/>
         <v>25.9375</v>
       </c>
       <c r="E33" s="1">
-        <f>AVERAGE(E1:E32)</f>
+        <f t="shared" si="0"/>
         <v>8682258.53125</v>
       </c>
       <c r="F33" s="1">
-        <f>AVERAGE(F1:F32)</f>
+        <f t="shared" si="0"/>
         <v>19209963.8125</v>
       </c>
       <c r="G33" s="1">
-        <f>AVERAGE(G1:G32)</f>
+        <f t="shared" si="0"/>
         <v>11506.28125</v>
       </c>
       <c r="H33" s="1">
-        <f>AVERAGE(H1:H32)</f>
+        <f t="shared" si="0"/>
         <v>11506.28125</v>
       </c>
       <c r="I33" s="1">
-        <f>AVERAGE(I1:I32)</f>
+        <f t="shared" si="0"/>
         <v>11485.75</v>
       </c>
       <c r="J33" s="1">
-        <f>AVERAGE(J1:J32)</f>
+        <f t="shared" si="0"/>
         <v>11503</v>
       </c>
       <c r="K33" s="1">
-        <f>AVERAGE(K1:K32)</f>
+        <f t="shared" si="0"/>
         <v>1078.3963750000003</v>
       </c>
       <c r="L33" s="1">
-        <f>AVERAGE(L1:L32)</f>
+        <f t="shared" si="0"/>
         <v>3039.58309375</v>
       </c>
       <c r="M33" s="1">
-        <f>AVERAGE(M1:M32)</f>
+        <f t="shared" si="0"/>
         <v>89.71875</v>
       </c>
       <c r="N33" s="1">
-        <f>AVERAGE(N1:N32)</f>
+        <f t="shared" si="0"/>
         <v>27.59375</v>
       </c>
       <c r="O33" s="1">
-        <f>AVERAGE(O1:O32)</f>
+        <f t="shared" si="0"/>
         <v>55.1875</v>
       </c>
       <c r="P33" s="1">
-        <f>AVERAGE(P1:P32)</f>
+        <f t="shared" si="0"/>
         <v>18315.765687499999</v>
       </c>
       <c r="Q33" s="1">
-        <f>AVERAGE(Q1:Q32)</f>
+        <f t="shared" si="0"/>
         <v>76.125</v>
       </c>
       <c r="R33" s="1">
-        <f>AVERAGE(R1:R32)</f>
+        <f t="shared" si="0"/>
         <v>36.625</v>
       </c>
       <c r="S33" s="1">
-        <f>AVERAGE(S1:S32)</f>
+        <f t="shared" si="0"/>
         <v>36.625</v>
       </c>
       <c r="T33" s="1">
-        <f>AVERAGE(T1:T32)</f>
+        <f t="shared" si="0"/>
         <v>5150.5</v>
       </c>
       <c r="U33" s="1">
-        <f>AVERAGE(U1:U32)</f>
+        <f t="shared" si="0"/>
         <v>35.601468750000002</v>
       </c>
       <c r="V33" s="1">
-        <f>AVERAGE(V1:V32)</f>
+        <f t="shared" si="0"/>
         <v>4854.1875</v>
       </c>
       <c r="W33" s="1">
-        <f>AVERAGE(W1:W32)</f>
+        <f t="shared" si="0"/>
         <v>464.84525000000002</v>
       </c>
       <c r="X33" s="1">
-        <f>AVERAGE(X1:X32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y33" s="1">
-        <f>AVERAGE(Y1:Y32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z33" s="1">
-        <f>AVERAGE(Z1:Z32)</f>
+        <f t="shared" si="0"/>
         <v>14770.260250000001</v>
       </c>
     </row>
@@ -14889,99 +14791,99 @@
         <v>215066.8848387097</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ref="B35:Y35" si="0">AVERAGE(B1:B31)</f>
+        <f t="shared" ref="B35:Y35" si="1">AVERAGE(B1:B31)</f>
         <v>2038.6774193548388</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4077.5806451612902</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6069887.7741935486</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13973140.548387097</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11521.838709677419</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11521.838709677419</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11501.645161290322</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11518.903225806451</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>833.01690322580657</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3090.4141612903222</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.870967741935488</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18852.422967741935</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.838709677419359</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.741935483870968</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.741935483870968</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4274.2258064516127</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.813290322580645</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3688.1612903225805</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>464.40848387096776</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z35" s="1">
@@ -21324,15 +21226,15 @@
         <v>373840.49838709686</v>
       </c>
       <c r="B121" s="1">
-        <f t="shared" ref="B121:D121" si="1">AVERAGE(B90:B120)</f>
+        <f t="shared" ref="B121:D121" si="2">AVERAGE(B90:B120)</f>
         <v>2391.3870967741937</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4782.9354838709678</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.93548387096774</v>
       </c>
     </row>
